--- a/ml_analysis_results.xlsx
+++ b/ml_analysis_results.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\opv_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284587BB-9038-43E6-BA79-C8091FA45199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B839E9-78D4-44DA-99C2-9CEC9FFF5C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
   <sheets>
     <sheet name="OPVs from Min et al." sheetId="1" r:id="rId1"/>
-    <sheet name="Swelling from Xu et al." sheetId="3" r:id="rId2"/>
-    <sheet name="Pervaporation from Wang et al." sheetId="4" r:id="rId3"/>
-    <sheet name="Catalysis from Hein et al." sheetId="2" r:id="rId4"/>
+    <sheet name="OPVs from Troisi" sheetId="6" r:id="rId2"/>
+    <sheet name="Swelling from Xu et al." sheetId="3" r:id="rId3"/>
+    <sheet name="Pervaporation from Wang et al." sheetId="4" r:id="rId4"/>
+    <sheet name="CO2 Solubility from Soleimani" sheetId="5" r:id="rId5"/>
+    <sheet name="Catalysis from Hein et al." sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="39">
   <si>
     <t>Summary of Model vs. Data Representation</t>
   </si>
@@ -755,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8006122-67A7-4469-ADD5-B623037ECCEC}">
   <dimension ref="A1:BD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
@@ -2342,20 +2344,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C59F8-2F5D-4EDA-94E3-053A29045E8E}">
-  <dimension ref="A1:AK25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192037CC-0390-4327-AA9E-8EE78B4B4BDC}">
+  <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
@@ -2534,681 +2532,249 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
-        <v>0.39485954930450101</v>
-      </c>
-      <c r="C3" s="11">
-        <v>8.3240065638451294E-2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.19519443663255401</v>
-      </c>
-      <c r="E3" s="10">
-        <v>3.5189158691605098E-2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.46293287853902299</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.34281976348842802</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.17648823812707601</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5.8780179145044603E-2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.39721748723251799</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.23204551646515101</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.19684800240141401</v>
-      </c>
-      <c r="M3" s="10">
-        <v>4.6348239891307097E-2</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.50282581108561897</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0.35984965048242501</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.17172997136149801</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>5.9257275913750899E-2</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0.418119328263447</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0.26555583939118999</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.19080288689511701</v>
-      </c>
-      <c r="U3" s="10">
-        <v>5.9542420827314299E-2</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.566319347909918</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0.23599792204738401</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0.16916243915606699</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>4.8078998501830297E-2</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0.68644964700561595</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0.246910987433616</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0.14621091406943701</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>6.4277964083004194E-2</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0.50161296661187604</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>0.26496492122600301</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0.15898318551675</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>6.0699439757642998E-2</v>
-      </c>
-      <c r="AH3" s="11">
-        <v>0.57362078701635499</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0.21885096484819599</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>0.16734438237841001</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>3.9837508809785802E-2</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11">
-        <v>0.46569597224291098</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.16646207083759201</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.18935023248195601</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3.8237325847148798E-2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.48171613383870399</v>
-      </c>
-      <c r="G4" s="11">
-        <v>5.8783648371704897E-2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.21588294208049699</v>
-      </c>
-      <c r="I4" s="10">
-        <v>6.2740214169025393E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.29520581966648801</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.27623964614306901</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.212539792060852</v>
-      </c>
-      <c r="M4" s="10">
-        <v>6.2363136559724801E-2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.54825942040393305</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.25469921280122498</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.18131306767463601</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>7.4056588113307897E-2</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0.44389799871166802</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0.192354217232</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0.19936592876911099</v>
-      </c>
-      <c r="U4" s="10">
-        <v>4.83150370419025E-2</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0.81944026167753703</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0.118541621558908</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0.123428583145141</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>5.2061341702937997E-2</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0.75880103978115199</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0.188074174246395</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0.13910998404026001</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>5.9504445642232798E-2</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0.51040750159568904</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>0.29847113734874797</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0.16542276740074099</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>7.3385648429393699E-2</v>
-      </c>
-      <c r="AH4" s="11">
-        <v>0.67906375637518002</v>
-      </c>
-      <c r="AI4" s="11">
-        <v>0.18060795178491601</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>0.14866395294666199</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>5.27508445084095E-2</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
     </row>
     <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
-        <v>0.37162317082600399</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.21661380590512599</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.200699048442019</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4.40888301179004E-2</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.380358592601378</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.20917569061111499</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.193849965556462</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4.1885790172059997E-2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.324794418992782</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.23564611227927201</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.18850547604863199</v>
-      </c>
-      <c r="M5" s="10">
-        <v>4.8636315146456603E-2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.45236338572263401</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.31894576611328601</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.175229425414165</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>5.6630633884171097E-2</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.32662532544581302</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0.366884698950521</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.19239328808324499</v>
-      </c>
-      <c r="U5" s="10">
-        <v>6.2891320311913398E-2</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0.55872268088336197</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0.11702432255317</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0.174447026888086</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>3.8116167622312E-2</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0.56035898255013294</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0.15561499991456501</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0.17457952131157101</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>3.7393243697224E-2</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>0.604713009781504</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>0.21045458579836701</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0.14795449310127401</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>5.86103127153162E-2</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0.60338474280760501</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0.135359442239841</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>0.16235828949334399</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>4.6923287303324498E-2</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
     </row>
     <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.103572118489359</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.42011137502482399</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.27050362291982699</v>
-      </c>
-      <c r="E6" s="10">
-        <v>6.5999141031099204E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.103572597761007</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.420111210057591</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.270595812060617</v>
-      </c>
-      <c r="I6" s="10">
-        <v>6.5971158654048498E-2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.105411106816895</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.41846804613045302</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.266180295207599</v>
-      </c>
-      <c r="M6" s="10">
-        <v>6.6920478012992293E-2</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.103717318226231</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.41995752878172399</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.270503615053377</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>6.5999138518160597E-2</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0.26617834631654202</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0.34814711317903801</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.23142348136788399</v>
-      </c>
-      <c r="U6" s="10">
-        <v>6.9373868476495598E-2</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0.83920180763951702</v>
-      </c>
-      <c r="W6" s="11">
-        <v>9.1926579410431294E-2</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0.14821759907031101</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>5.1620201910792397E-2</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0.84213216556876502</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>9.1588522073781098E-2</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>0.146820386457541</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>5.1785778126435401E-2</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>-0.101202580446247</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>0.24421927695961701</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>0.22713198783202301</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>6.8803247635195297E-2</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0.48607936487329401</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0.42545041539152501</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>0.20469943824162401</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>7.8806048956532496E-2</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>-5.9744525652427098E-2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.37528965346141002</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4.7051433074687198E-2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.7208065179991501E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.195786307384441</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.275467182194918</v>
-      </c>
-      <c r="H7" s="10">
-        <v>3.78768644960863E-2</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1.95262035211528E-2</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.14238123305432199</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.28089731129177797</v>
-      </c>
-      <c r="L7" s="10">
-        <v>3.8978689483233797E-2</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1.9773910591786199E-2</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.39869035915894901</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.30302755395637898</v>
-      </c>
-      <c r="P7" s="10">
-        <v>3.5409113126141603E-2</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>1.8917661570790899E-2</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0.40793731924775301</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0.26272295788316102</v>
-      </c>
-      <c r="T7" s="10">
-        <v>3.7852499900119602E-2</v>
-      </c>
-      <c r="U7" s="10">
-        <v>2.1173857331948698E-2</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0.482811738918353</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0.28313507484740202</v>
-      </c>
-      <c r="X7" s="10">
-        <v>3.2022030491914003E-2</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>1.46441013674069E-2</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0.53264664984368604</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0.222267256616626</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>3.32913996119584E-2</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>1.85950226269339E-2</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0.40342833063045103</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0.28019220850544402</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>3.8003598872040002E-2</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>2.03799306088875E-2</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0.45163656364787702</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0.17779470983439499</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>3.8132931105792502E-2</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>2.47140846009914E-2</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
     </row>
     <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>0.53334813477930998</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.30825904677111998</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2.8378517633037899E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2.1154433144666199E-2</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.611508021106967</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.28655361472429802</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3.88088505715131E-2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4.1167222005921697E-2</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.34412957476331002</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.17914218387832501</v>
-      </c>
-      <c r="L8" s="10">
-        <v>3.2612879095332899E-2</v>
-      </c>
-      <c r="M8" s="10">
-        <v>2.8928996992347199E-2</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0.67457780435487802</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0.33430837804399399</v>
-      </c>
-      <c r="P8" s="10">
-        <v>3.4737708180078403E-2</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2.76033814393798E-2</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0.47792920199307498</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0.19951876072802099</v>
-      </c>
-      <c r="T8" s="10">
-        <v>3.7334947048553398E-2</v>
-      </c>
-      <c r="U8" s="10">
-        <v>2.2681063668151799E-2</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0.59467660606681505</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0.20239380361958201</v>
-      </c>
-      <c r="X8" s="10">
-        <v>3.2954135776630401E-2</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>2.1048955073500599E-2</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0.77377736103999095</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0.185975282123444</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>2.7938917678381699E-2</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>2.0927210301617202E-2</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0.15474499999999999</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>0.449129</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AG8" s="10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>0.34959062275948399</v>
-      </c>
-      <c r="AI8" s="11">
-        <v>0.32145033798677902</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>3.7519611684339302E-2</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>1.6256393183703501E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -3331,7 +2897,7 @@
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
     </row>
-    <row r="12" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -3495,7 +3061,7 @@
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
     </row>
-    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -3536,6 +3102,1259 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
     </row>
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C59F8-2F5D-4EDA-94E3-053A29045E8E}">
+  <dimension ref="A1:AK25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="32"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.39485954930450101</v>
+      </c>
+      <c r="C3" s="11">
+        <v>8.3240065638451294E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.19519443663255401</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3.5189158691605098E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.46293287853902299</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.34281976348842802</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.17648823812707601</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5.8780179145044603E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.39721748723251799</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.23204551646515101</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.19684800240141401</v>
+      </c>
+      <c r="M3" s="10">
+        <v>4.6348239891307097E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.50282581108561897</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.35984965048242501</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.17172997136149801</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>5.9257275913750899E-2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.418119328263447</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0.26555583939118999</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.19080288689511701</v>
+      </c>
+      <c r="U3" s="10">
+        <v>5.9542420827314299E-2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0.566319347909918</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.23599792204738401</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0.16916243915606699</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>4.8078998501830297E-2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0.68644964700561595</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.246910987433616</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0.14621091406943701</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>6.4277964083004194E-2</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>0.50161296661187604</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>0.26496492122600301</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0.15898318551675</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>6.0699439757642998E-2</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>0.57362078701635499</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>0.21885096484819599</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0.16734438237841001</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>3.9837508809785802E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.46569597224291098</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.16646207083759201</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.18935023248195601</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3.8237325847148798E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.48171613383870399</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5.8783648371704897E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.21588294208049699</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6.2740214169025393E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.29520581966648801</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.27623964614306901</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.212539792060852</v>
+      </c>
+      <c r="M4" s="10">
+        <v>6.2363136559724801E-2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.54825942040393305</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.25469921280122498</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.18131306767463601</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>7.4056588113307897E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.44389799871166802</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0.192354217232</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.19936592876911099</v>
+      </c>
+      <c r="U4" s="10">
+        <v>4.83150370419025E-2</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0.81944026167753703</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0.118541621558908</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0.123428583145141</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>5.2061341702937997E-2</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0.75880103978115199</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0.188074174246395</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0.13910998404026001</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>5.9504445642232798E-2</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0.51040750159568904</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0.29847113734874797</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0.16542276740074099</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>7.3385648429393699E-2</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0.67906375637518002</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>0.18060795178491601</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0.14866395294666199</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>5.27508445084095E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.37162317082600399</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.21661380590512599</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.200699048442019</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.40888301179004E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.380358592601378</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.20917569061111499</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.193849965556462</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4.1885790172059997E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.324794418992782</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.23564611227927201</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.18850547604863199</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4.8636315146456603E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.45236338572263401</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.31894576611328601</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.175229425414165</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5.6630633884171097E-2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.32662532544581302</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.366884698950521</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.19239328808324499</v>
+      </c>
+      <c r="U5" s="10">
+        <v>6.2891320311913398E-2</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0.55872268088336197</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0.11702432255317</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.174447026888086</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>3.8116167622312E-2</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0.56035898255013294</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.15561499991456501</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0.17457952131157101</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>3.7393243697224E-2</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0.604713009781504</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0.21045458579836701</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0.14795449310127401</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>5.86103127153162E-2</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0.60338474280760501</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0.135359442239841</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0.16235828949334399</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>4.6923287303324498E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.103572118489359</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.42011137502482399</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.27050362291982699</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6.5999141031099204E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.103572597761007</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.420111210057591</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.270595812060617</v>
+      </c>
+      <c r="I6" s="10">
+        <v>6.5971158654048498E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.105411106816895</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.41846804613045302</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.266180295207599</v>
+      </c>
+      <c r="M6" s="10">
+        <v>6.6920478012992293E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.103717318226231</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.41995752878172399</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.270503615053377</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>6.5999138518160597E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.26617834631654202</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.34814711317903801</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.23142348136788399</v>
+      </c>
+      <c r="U6" s="10">
+        <v>6.9373868476495598E-2</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0.83920180763951702</v>
+      </c>
+      <c r="W6" s="11">
+        <v>9.1926579410431294E-2</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0.14821759907031101</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>5.1620201910792397E-2</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0.84213216556876502</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>9.1588522073781098E-2</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.146820386457541</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>5.1785778126435401E-2</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>-0.101202580446247</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0.24421927695961701</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0.22713198783202301</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>6.8803247635195297E-2</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0.48607936487329401</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0.42545041539152501</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.20469943824162401</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>7.8806048956532496E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>-5.9744525652427098E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.37528965346141002</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.7051433074687198E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.7208065179991501E-2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.195786307384441</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.275467182194918</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3.78768644960863E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.95262035211528E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.14238123305432199</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.28089731129177797</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3.8978689483233797E-2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.9773910591786199E-2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.39869035915894901</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.30302755395637898</v>
+      </c>
+      <c r="P7" s="10">
+        <v>3.5409113126141603E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1.8917661570790899E-2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.40793731924775301</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.26272295788316102</v>
+      </c>
+      <c r="T7" s="10">
+        <v>3.7852499900119602E-2</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.1173857331948698E-2</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0.482811738918353</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0.28313507484740202</v>
+      </c>
+      <c r="X7" s="10">
+        <v>3.2022030491914003E-2</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1.46441013674069E-2</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0.53264664984368604</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0.222267256616626</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>3.32913996119584E-2</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>1.85950226269339E-2</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0.40342833063045103</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0.28019220850544402</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>3.8003598872040002E-2</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>2.03799306088875E-2</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0.45163656364787702</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0.17779470983439499</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>3.8132931105792502E-2</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>2.47140846009914E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.53334813477930998</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.30825904677111998</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.8378517633037899E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2.1154433144666199E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.611508021106967</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.28655361472429802</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3.88088505715131E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.1167222005921697E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.34412957476331002</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.17914218387832501</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3.2612879095332899E-2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>2.8928996992347199E-2</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.67457780435487802</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.33430837804399399</v>
+      </c>
+      <c r="P8" s="10">
+        <v>3.4737708180078403E-2</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>2.76033814393798E-2</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.47792920199307498</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.19951876072802099</v>
+      </c>
+      <c r="T8" s="10">
+        <v>3.7334947048553398E-2</v>
+      </c>
+      <c r="U8" s="10">
+        <v>2.2681063668151799E-2</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0.59467660606681505</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0.20239380361958201</v>
+      </c>
+      <c r="X8" s="10">
+        <v>3.2954135776630401E-2</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>2.1048955073500599E-2</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0.77377736103999095</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0.185975282123444</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>2.7938917678381699E-2</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>2.0927210301617202E-2</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0.15474499999999999</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0.449129</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0.34959062275948399</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0.32145033798677902</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>3.7519611684339302E-2</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>1.6256393183703501E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+    </row>
+    <row r="12" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+    </row>
+    <row r="13" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+    </row>
+    <row r="15" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+    </row>
+    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+    </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="23"/>
@@ -3673,12 +4492,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6708FB77-1846-460A-9DFD-3426C0FC4857}">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4432,6 +5251,48 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
     </row>
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="Z2:AC2"/>
@@ -4449,7 +5310,884 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB7184-EEEC-4B6F-BDB2-C56A399ED9D8}">
+  <dimension ref="A1:AK25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="32"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+    </row>
+    <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+    </row>
+    <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+    </row>
+    <row r="13" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+    </row>
+    <row r="15" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+    </row>
+    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC93357-DFEE-4362-BFBE-907DA4AA54FD}">
   <dimension ref="A1:AN31"/>
   <sheetViews>

--- a/ml_analysis_results.xlsx
+++ b/ml_analysis_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\opv_ml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\da_for_polymers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B839E9-78D4-44DA-99C2-9CEC9FFF5C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB33F6-C793-4F32-B1AA-B4D13D756FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
   <sheets>
     <sheet name="OPVs from Min et al." sheetId="1" r:id="rId1"/>
@@ -2347,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192037CC-0390-4327-AA9E-8EE78B4B4BDC}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C59F8-2F5D-4EDA-94E3-053A29045E8E}">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ml_analysis_results.xlsx
+++ b/ml_analysis_results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\da_for_polymers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB33F6-C793-4F32-B1AA-B4D13D756FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD72DF-32DC-48DE-B779-D39E1F3ED0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
+    <workbookView xWindow="38280" yWindow="1260" windowWidth="29040" windowHeight="15840" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
   <sheets>
-    <sheet name="OPVs from Min et al." sheetId="1" r:id="rId1"/>
-    <sheet name="OPVs from Troisi" sheetId="6" r:id="rId2"/>
+    <sheet name="ml_analysis_tidy" sheetId="7" r:id="rId1"/>
+    <sheet name="OPVs from Min et al." sheetId="1" r:id="rId2"/>
     <sheet name="Swelling from Xu et al." sheetId="3" r:id="rId3"/>
     <sheet name="Pervaporation from Wang et al." sheetId="4" r:id="rId4"/>
     <sheet name="CO2 Solubility from Soleimani" sheetId="5" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="66">
   <si>
     <t>Summary of Model vs. Data Representation</t>
   </si>
@@ -188,6 +188,87 @@
   </si>
   <si>
     <t>~2500</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>R_mean</t>
+  </si>
+  <si>
+    <t>RMSE_mean</t>
+  </si>
+  <si>
+    <t>num_of_data</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Swelling_Xu</t>
+  </si>
+  <si>
+    <t>PV_Wang</t>
+  </si>
+  <si>
+    <t>CO2_Soleimani</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>gross_only</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>BRICS</t>
+  </si>
+  <si>
+    <t>AugSMILES</t>
+  </si>
+  <si>
+    <t>Fingerprints (r=3, bits=512)</t>
+  </si>
+  <si>
+    <t>Sum_of_frags</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>KRR</t>
   </si>
 </sst>
 </file>
@@ -344,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,6 +522,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,11 +836,2144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D19AE09-2F74-4C7E-BF0F-941431602E41}">
+  <dimension ref="A1:J116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="18">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" s="18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102">
+        <v>0.92996539016636903</v>
+      </c>
+      <c r="G102">
+        <v>4.1691303620357799E-2</v>
+      </c>
+      <c r="H102">
+        <v>5.0010744000000003E-2</v>
+      </c>
+      <c r="I102">
+        <v>1.4916219E-2</v>
+      </c>
+      <c r="J102">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110">
+        <v>0.89569987995808398</v>
+      </c>
+      <c r="G110">
+        <v>5.6325526511424799E-2</v>
+      </c>
+      <c r="H110">
+        <v>6.9269575E-2</v>
+      </c>
+      <c r="I110">
+        <v>2.3579352000000001E-2</v>
+      </c>
+      <c r="J110">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8006122-67A7-4469-ADD5-B623037ECCEC}">
   <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,126 +3290,46 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
-        <v>0.47046261058986999</v>
-      </c>
-      <c r="C3" s="11">
-        <v>6.9961812057247899E-2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.184952550697738</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.3352891795083499E-2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.44792217535078099</v>
-      </c>
-      <c r="G3" s="11">
-        <v>8.1171538750298505E-2</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.18742691242337001</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1.5138756717756699E-2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.43375288609865298</v>
-      </c>
-      <c r="K3" s="11">
-        <v>7.7601192948933903E-2</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.188898732983099</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1.2292424067843101E-2</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.443630417928153</v>
-      </c>
-      <c r="O3" s="11">
-        <v>5.9690644549017402E-2</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.18810675592376999</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>1.0180263540824099E-2</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0.50517811574911797</v>
-      </c>
-      <c r="S3" s="11">
-        <v>6.8668668716107606E-2</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.18120386720185999</v>
-      </c>
-      <c r="U3" s="10">
-        <v>1.2685762217853801E-2</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.48297155215684401</v>
-      </c>
-      <c r="W3" s="11">
-        <v>8.6016822360077294E-2</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0.18808186385825401</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>1.40797668616841E-2</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0.51613149900019595</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>8.8052527986181697E-2</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0.179525541170931</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>1.6039509965260299E-2</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0.51812458842905895</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>8.3569494716285594E-2</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0.18044759672343999</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>1.58875281138996E-2</v>
-      </c>
-      <c r="AH3" s="11">
-        <v>0.50336330316799305</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0.10812420181979</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>0.186444534354122</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>2.2105417703307401E-2</v>
-      </c>
-      <c r="AL3" s="11">
-        <v>0.63779712363765595</v>
-      </c>
-      <c r="AM3" s="11">
-        <v>7.1580188319444293E-2</v>
-      </c>
-      <c r="AN3" s="10">
-        <v>0.160867114945872</v>
-      </c>
-      <c r="AO3" s="10">
-        <v>1.51569449836469E-2</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
       <c r="AP3" s="14"/>
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14"/>
@@ -1215,126 +3350,46 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11">
-        <v>0.425722468001073</v>
-      </c>
-      <c r="C4" s="11">
-        <v>7.7924246322547602E-2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.19209124147891901</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.6328407451510402E-2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.37475291084657703</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4.9361203232397503E-2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.20610770583152699</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1.8490919843315998E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.38597452753038303</v>
-      </c>
-      <c r="K4" s="11">
-        <v>5.2725385891670598E-2</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.19610008597373901</v>
-      </c>
-      <c r="M4" s="10">
-        <v>9.3140397220849904E-3</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.45185084962630701</v>
-      </c>
-      <c r="O4" s="11">
-        <v>4.7388318441587397E-2</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.18833909928798601</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>7.9834396019577893E-3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0.51629850840469904</v>
-      </c>
-      <c r="S4" s="11">
-        <v>7.1572302763754703E-2</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0.184125036001205</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1.5286094509065099E-2</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0.47587069586765601</v>
-      </c>
-      <c r="W4" s="11">
-        <v>5.82809238868938E-2</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0.195469930768013</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>5.8509320951998199E-3</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0.52219801282162803</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0.102505001089021</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0.18265292048454199</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>2.0559933036565701E-2</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0.53054832197295998</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>8.2040247355337298E-2</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0.18308222293853699</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>1.58132500946521E-2</v>
-      </c>
-      <c r="AH4" s="11">
-        <v>0.49838487804055498</v>
-      </c>
-      <c r="AI4" s="11">
-        <v>7.1845280235151396E-2</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>0.19668415188789301</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>2.0313398912549002E-2</v>
-      </c>
-      <c r="AL4" s="11">
-        <v>0.62506070351312604</v>
-      </c>
-      <c r="AM4" s="11">
-        <v>7.6996073144885296E-2</v>
-      </c>
-      <c r="AN4" s="10">
-        <v>0.16614349186420399</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>1.51354987174272E-2</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
       <c r="AP4" s="14"/>
       <c r="AQ4" s="14"/>
       <c r="AR4" s="14"/>
@@ -1355,126 +3410,46 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
-        <v>0.47613288039502699</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5.8932271949320401E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.185409662775916</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1.1182449219407401E-2</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.432560445527717</v>
-      </c>
-      <c r="G5" s="11">
-        <v>6.7500880392386498E-2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.18982551970012401</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1.30945178272651E-2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.35963277690171802</v>
-      </c>
-      <c r="K5" s="11">
-        <v>8.2776677300008095E-2</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.198237136440616</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1.38268965922389E-2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.45532800928801098</v>
-      </c>
-      <c r="O5" s="11">
-        <v>8.2899598218557094E-2</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.186664008031867</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>1.29864093754234E-2</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.44469038398412197</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0.128823004105521</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.18733564375460701</v>
-      </c>
-      <c r="U5" s="10">
-        <v>1.6549159859917301E-2</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0.34087187526315099</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0.11705410201871</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0.25175498002220797</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>4.4739808434277099E-2</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0.31909016597191903</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>9.2310729222128102E-2</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0.21758547874807899</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>3.7230471789902297E-2</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>0.37892730161799199</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>0.124830415427801</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0.19467993722718199</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>1.7571081819739199E-2</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0.38794994538702798</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0.18037832810695301</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>0.20679652624185399</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>2.88613549019077E-2</v>
-      </c>
-      <c r="AL5" s="11">
-        <v>0.59437541597751198</v>
-      </c>
-      <c r="AM5" s="11">
-        <v>6.84953914291343E-2</v>
-      </c>
-      <c r="AN5" s="10">
-        <v>0.16813545554378401</v>
-      </c>
-      <c r="AO5" s="10">
-        <v>1.23984264086232E-2</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
@@ -1495,126 +3470,46 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.14290579538314699</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.16943855121360499</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.233773097395896</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2.08264785475341E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.19673841427534</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.177016855854948</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.229681640863418</v>
-      </c>
-      <c r="I6" s="10">
-        <v>3.03974361400869E-2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>9.8573851585388103E-2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.11286915347726199</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.23112019300460801</v>
-      </c>
-      <c r="M6" s="10">
-        <v>2.5671709382023299E-2</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.41802425873585197</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.106525820151709</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.19333428442478101</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>1.9325895417603899E-2</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0.13871448681904699</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0.14887965450105201</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.31323367357254001</v>
-      </c>
-      <c r="U6" s="10">
-        <v>4.0446217259314098E-2</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0.32848614912766599</v>
-      </c>
-      <c r="W6" s="11">
-        <v>0.19459135986286399</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0.19661666154861401</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>2.2336285032396298E-2</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0.121833041998056</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>8.0517441620664598E-2</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>0.37120117545127801</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>2.74679535421672E-2</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>0.25790425080519402</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>0.12900217583704801</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>0.37228112220764098</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>3.6863792511377801E-2</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0.474695151891463</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>7.51054881100299E-2</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>0.185158264636993</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>1.7660647702078602E-2</v>
-      </c>
-      <c r="AL6" s="11">
-        <v>-4.3883100839761498E-2</v>
-      </c>
-      <c r="AM6" s="11">
-        <v>0.10450753930880401</v>
-      </c>
-      <c r="AN6" s="10">
-        <v>0.22812694013118701</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>2.1164835993949398E-2</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
       <c r="AP6" s="14"/>
       <c r="AQ6" s="14"/>
       <c r="AR6" s="14"/>
@@ -1635,126 +3530,46 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
-        <v>0.47828865540333199</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.129664121375555</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.18547261655330599</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.9053022913464701E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.51106888208633805</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.175820539711489</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.19313462376594501</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4.07713138566115E-2</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.34257496075752403</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.15094511858343301</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.21081408560275999</v>
-      </c>
-      <c r="M7" s="10">
-        <v>3.1756252253253903E-2</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.363755079416128</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.12385495329544099</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.199202683568</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>1.5258345274574699E-2</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0.43799156775841303</v>
-      </c>
-      <c r="S7" s="11">
-        <v>9.6545600536255605E-2</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0.20039083361625601</v>
-      </c>
-      <c r="U7" s="10">
-        <v>2.9100933576306599E-2</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0.53946479895176003</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0.158852154423125</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0.185461488366127</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>3.9871449445618601E-2</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0.50262997945149701</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0.16388825129094001</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>0.195945584774017</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>2.9173049154102699E-2</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0.53531696123954498</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0.11087596769201701</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>0.182043766975402</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>3.0358750930346401E-2</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0.58809799781212402</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>9.0978874010306604E-2</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>0.178400143980979</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>2.0484730652875399E-2</v>
-      </c>
-      <c r="AL7" s="11">
-        <v>0.24710095478938099</v>
-      </c>
-      <c r="AM7" s="11">
-        <v>0.20056195700301399</v>
-      </c>
-      <c r="AN7" s="10">
-        <v>0.20166546106338501</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>1.02271487555842E-2</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
       <c r="AP7" s="14"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="14"/>
@@ -2343,17 +4158,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192037CC-0390-4327-AA9E-8EE78B4B4BDC}">
-  <dimension ref="A1:AK21"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C59F8-2F5D-4EDA-94E3-053A29045E8E}">
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
@@ -2532,249 +4351,681 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
+      <c r="B3" s="11">
+        <v>0.39485954930450101</v>
+      </c>
+      <c r="C3" s="11">
+        <v>8.3240065638451294E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.19519443663255401</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3.5189158691605098E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.46293287853902299</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.34281976348842802</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.17648823812707601</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5.8780179145044603E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.39721748723251799</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.23204551646515101</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.19684800240141401</v>
+      </c>
+      <c r="M3" s="10">
+        <v>4.6348239891307097E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.50282581108561897</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.35984965048242501</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.17172997136149801</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>5.9257275913750899E-2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.418119328263447</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0.26555583939118999</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.19080288689511701</v>
+      </c>
+      <c r="U3" s="10">
+        <v>5.9542420827314299E-2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0.566319347909918</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.23599792204738401</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0.16916243915606699</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>4.8078998501830297E-2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0.68644964700561595</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.246910987433616</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0.14621091406943701</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>6.4277964083004194E-2</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>0.50161296661187604</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>0.26496492122600301</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0.15898318551675</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>6.0699439757642998E-2</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>0.57362078701635499</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>0.21885096484819599</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0.16734438237841001</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>3.9837508809785802E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
+      <c r="B4" s="11">
+        <v>0.46569597224291098</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.16646207083759201</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.18935023248195601</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3.8237325847148798E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.48171613383870399</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5.8783648371704897E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.21588294208049699</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6.2740214169025393E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.29520581966648801</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.27623964614306901</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.212539792060852</v>
+      </c>
+      <c r="M4" s="10">
+        <v>6.2363136559724801E-2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.54825942040393305</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.25469921280122498</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.18131306767463601</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>7.4056588113307897E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.44389799871166802</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0.192354217232</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.19936592876911099</v>
+      </c>
+      <c r="U4" s="10">
+        <v>4.83150370419025E-2</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0.81944026167753703</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0.118541621558908</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0.123428583145141</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>5.2061341702937997E-2</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0.75880103978115199</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0.188074174246395</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0.13910998404026001</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>5.9504445642232798E-2</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0.51040750159568904</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0.29847113734874797</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0.16542276740074099</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>7.3385648429393699E-2</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0.67906375637518002</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>0.18060795178491601</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0.14866395294666199</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>5.27508445084095E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
+      <c r="B5" s="11">
+        <v>0.37162317082600399</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.21661380590512599</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.200699048442019</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.40888301179004E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.380358592601378</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.20917569061111499</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.193849965556462</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4.1885790172059997E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.324794418992782</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.23564611227927201</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.18850547604863199</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4.8636315146456603E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.45236338572263401</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.31894576611328601</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.175229425414165</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5.6630633884171097E-2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.32662532544581302</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.366884698950521</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.19239328808324499</v>
+      </c>
+      <c r="U5" s="10">
+        <v>6.2891320311913398E-2</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0.55872268088336197</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0.11702432255317</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.174447026888086</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>3.8116167622312E-2</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0.56035898255013294</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.15561499991456501</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0.17457952131157101</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>3.7393243697224E-2</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0.604713009781504</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0.21045458579836701</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0.14795449310127401</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>5.86103127153162E-2</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0.60338474280760501</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0.135359442239841</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0.16235828949334399</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>4.6923287303324498E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
+      <c r="B6" s="11">
+        <v>0.103572118489359</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.42011137502482399</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.27050362291982699</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6.5999141031099204E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.103572597761007</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.420111210057591</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.270595812060617</v>
+      </c>
+      <c r="I6" s="10">
+        <v>6.5971158654048498E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.105411106816895</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.41846804613045302</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.266180295207599</v>
+      </c>
+      <c r="M6" s="10">
+        <v>6.6920478012992293E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.103717318226231</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.41995752878172399</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.270503615053377</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>6.5999138518160597E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.26617834631654202</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.34814711317903801</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.23142348136788399</v>
+      </c>
+      <c r="U6" s="10">
+        <v>6.9373868476495598E-2</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0.83920180763951702</v>
+      </c>
+      <c r="W6" s="11">
+        <v>9.1926579410431294E-2</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0.14821759907031101</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>5.1620201910792397E-2</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0.84213216556876502</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>9.1588522073781098E-2</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.146820386457541</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>5.1785778126435401E-2</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>-0.101202580446247</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0.24421927695961701</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0.22713198783202301</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>6.8803247635195297E-2</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0.48607936487329401</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0.42545041539152501</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.20469943824162401</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>7.8806048956532496E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
+      <c r="B7" s="11">
+        <v>-5.9744525652427098E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.37528965346141002</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.7051433074687198E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.7208065179991501E-2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.195786307384441</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.275467182194918</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3.78768644960863E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.95262035211528E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.14238123305432199</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.28089731129177797</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3.8978689483233797E-2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.9773910591786199E-2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.39869035915894901</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.30302755395637898</v>
+      </c>
+      <c r="P7" s="10">
+        <v>3.5409113126141603E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1.8917661570790899E-2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.40793731924775301</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.26272295788316102</v>
+      </c>
+      <c r="T7" s="10">
+        <v>3.7852499900119602E-2</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.1173857331948698E-2</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0.482811738918353</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0.28313507484740202</v>
+      </c>
+      <c r="X7" s="10">
+        <v>3.2022030491914003E-2</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1.46441013674069E-2</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0.53264664984368604</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0.222267256616626</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>3.32913996119584E-2</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>1.85950226269339E-2</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0.40342833063045103</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0.28019220850544402</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>3.8003598872040002E-2</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>2.03799306088875E-2</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0.45163656364787702</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0.17779470983439499</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>3.8132931105792502E-2</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>2.47140846009914E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>0.53334813477930998</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.30825904677111998</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.8378517633037899E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2.1154433144666199E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.611508021106967</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.28655361472429802</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3.88088505715131E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.1167222005921697E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.34412957476331002</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.17914218387832501</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3.2612879095332899E-2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>2.8928996992347199E-2</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.67457780435487802</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.33430837804399399</v>
+      </c>
+      <c r="P8" s="10">
+        <v>3.4737708180078403E-2</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>2.76033814393798E-2</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.47792920199307498</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.19951876072802099</v>
+      </c>
+      <c r="T8" s="10">
+        <v>3.7334947048553398E-2</v>
+      </c>
+      <c r="U8" s="10">
+        <v>2.2681063668151799E-2</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0.59467660606681505</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0.20239380361958201</v>
+      </c>
+      <c r="X8" s="10">
+        <v>3.2954135776630401E-2</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>2.1048955073500599E-2</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0.77377736103999095</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0.185975282123444</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>2.7938917678381699E-2</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>2.0927210301617202E-2</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0.15474499999999999</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0.449129</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0.34959062275948399</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0.32145033798677902</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>3.7519611684339302E-2</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>1.6256393183703501E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2897,7 +5148,7 @@
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +5312,7 @@
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -3102,1259 +5353,6 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C59F8-2F5D-4EDA-94E3-053A29045E8E}">
-  <dimension ref="A1:AK25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.39485954930450101</v>
-      </c>
-      <c r="C3" s="11">
-        <v>8.3240065638451294E-2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.19519443663255401</v>
-      </c>
-      <c r="E3" s="10">
-        <v>3.5189158691605098E-2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.46293287853902299</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.34281976348842802</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.17648823812707601</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5.8780179145044603E-2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.39721748723251799</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.23204551646515101</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.19684800240141401</v>
-      </c>
-      <c r="M3" s="10">
-        <v>4.6348239891307097E-2</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.50282581108561897</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0.35984965048242501</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.17172997136149801</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>5.9257275913750899E-2</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0.418119328263447</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0.26555583939118999</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.19080288689511701</v>
-      </c>
-      <c r="U3" s="10">
-        <v>5.9542420827314299E-2</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.566319347909918</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0.23599792204738401</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0.16916243915606699</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>4.8078998501830297E-2</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0.68644964700561595</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0.246910987433616</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0.14621091406943701</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>6.4277964083004194E-2</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0.50161296661187604</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>0.26496492122600301</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0.15898318551675</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>6.0699439757642998E-2</v>
-      </c>
-      <c r="AH3" s="11">
-        <v>0.57362078701635499</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0.21885096484819599</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>0.16734438237841001</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>3.9837508809785802E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.46569597224291098</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.16646207083759201</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.18935023248195601</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3.8237325847148798E-2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.48171613383870399</v>
-      </c>
-      <c r="G4" s="11">
-        <v>5.8783648371704897E-2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.21588294208049699</v>
-      </c>
-      <c r="I4" s="10">
-        <v>6.2740214169025393E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.29520581966648801</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.27623964614306901</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.212539792060852</v>
-      </c>
-      <c r="M4" s="10">
-        <v>6.2363136559724801E-2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.54825942040393305</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.25469921280122498</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.18131306767463601</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>7.4056588113307897E-2</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0.44389799871166802</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0.192354217232</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0.19936592876911099</v>
-      </c>
-      <c r="U4" s="10">
-        <v>4.83150370419025E-2</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0.81944026167753703</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0.118541621558908</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0.123428583145141</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>5.2061341702937997E-2</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0.75880103978115199</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0.188074174246395</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0.13910998404026001</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>5.9504445642232798E-2</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0.51040750159568904</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>0.29847113734874797</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0.16542276740074099</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>7.3385648429393699E-2</v>
-      </c>
-      <c r="AH4" s="11">
-        <v>0.67906375637518002</v>
-      </c>
-      <c r="AI4" s="11">
-        <v>0.18060795178491601</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>0.14866395294666199</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>5.27508445084095E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.37162317082600399</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.21661380590512599</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.200699048442019</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4.40888301179004E-2</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.380358592601378</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.20917569061111499</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.193849965556462</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4.1885790172059997E-2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.324794418992782</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.23564611227927201</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.18850547604863199</v>
-      </c>
-      <c r="M5" s="10">
-        <v>4.8636315146456603E-2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.45236338572263401</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.31894576611328601</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.175229425414165</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>5.6630633884171097E-2</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.32662532544581302</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0.366884698950521</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.19239328808324499</v>
-      </c>
-      <c r="U5" s="10">
-        <v>6.2891320311913398E-2</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0.55872268088336197</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0.11702432255317</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0.174447026888086</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>3.8116167622312E-2</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0.56035898255013294</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0.15561499991456501</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0.17457952131157101</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>3.7393243697224E-2</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>0.604713009781504</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>0.21045458579836701</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0.14795449310127401</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>5.86103127153162E-2</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0.60338474280760501</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0.135359442239841</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>0.16235828949334399</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>4.6923287303324498E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.103572118489359</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.42011137502482399</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.27050362291982699</v>
-      </c>
-      <c r="E6" s="10">
-        <v>6.5999141031099204E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.103572597761007</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.420111210057591</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.270595812060617</v>
-      </c>
-      <c r="I6" s="10">
-        <v>6.5971158654048498E-2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.105411106816895</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.41846804613045302</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.266180295207599</v>
-      </c>
-      <c r="M6" s="10">
-        <v>6.6920478012992293E-2</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.103717318226231</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.41995752878172399</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.270503615053377</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>6.5999138518160597E-2</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0.26617834631654202</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0.34814711317903801</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.23142348136788399</v>
-      </c>
-      <c r="U6" s="10">
-        <v>6.9373868476495598E-2</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0.83920180763951702</v>
-      </c>
-      <c r="W6" s="11">
-        <v>9.1926579410431294E-2</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0.14821759907031101</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>5.1620201910792397E-2</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0.84213216556876502</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>9.1588522073781098E-2</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>0.146820386457541</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>5.1785778126435401E-2</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>-0.101202580446247</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>0.24421927695961701</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>0.22713198783202301</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>6.8803247635195297E-2</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0.48607936487329401</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0.42545041539152501</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>0.20469943824162401</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>7.8806048956532496E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>-5.9744525652427098E-2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.37528965346141002</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4.7051433074687198E-2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.7208065179991501E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.195786307384441</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.275467182194918</v>
-      </c>
-      <c r="H7" s="10">
-        <v>3.78768644960863E-2</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1.95262035211528E-2</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.14238123305432199</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.28089731129177797</v>
-      </c>
-      <c r="L7" s="10">
-        <v>3.8978689483233797E-2</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1.9773910591786199E-2</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.39869035915894901</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.30302755395637898</v>
-      </c>
-      <c r="P7" s="10">
-        <v>3.5409113126141603E-2</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>1.8917661570790899E-2</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0.40793731924775301</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0.26272295788316102</v>
-      </c>
-      <c r="T7" s="10">
-        <v>3.7852499900119602E-2</v>
-      </c>
-      <c r="U7" s="10">
-        <v>2.1173857331948698E-2</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0.482811738918353</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0.28313507484740202</v>
-      </c>
-      <c r="X7" s="10">
-        <v>3.2022030491914003E-2</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>1.46441013674069E-2</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0.53264664984368604</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0.222267256616626</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>3.32913996119584E-2</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>1.85950226269339E-2</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0.40342833063045103</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0.28019220850544402</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>3.8003598872040002E-2</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>2.03799306088875E-2</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0.45163656364787702</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0.17779470983439499</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>3.8132931105792502E-2</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>2.47140846009914E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0.53334813477930998</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.30825904677111998</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2.8378517633037899E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2.1154433144666199E-2</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.611508021106967</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.28655361472429802</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3.88088505715131E-2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4.1167222005921697E-2</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.34412957476331002</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.17914218387832501</v>
-      </c>
-      <c r="L8" s="10">
-        <v>3.2612879095332899E-2</v>
-      </c>
-      <c r="M8" s="10">
-        <v>2.8928996992347199E-2</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0.67457780435487802</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0.33430837804399399</v>
-      </c>
-      <c r="P8" s="10">
-        <v>3.4737708180078403E-2</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2.76033814393798E-2</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0.47792920199307498</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0.19951876072802099</v>
-      </c>
-      <c r="T8" s="10">
-        <v>3.7334947048553398E-2</v>
-      </c>
-      <c r="U8" s="10">
-        <v>2.2681063668151799E-2</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0.59467660606681505</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0.20239380361958201</v>
-      </c>
-      <c r="X8" s="10">
-        <v>3.2954135776630401E-2</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>2.1048955073500599E-2</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0.77377736103999095</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0.185975282123444</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>2.7938917678381699E-2</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>2.0927210301617202E-2</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0.15474499999999999</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>0.449129</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AG8" s="10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>0.34959062275948399</v>
-      </c>
-      <c r="AI8" s="11">
-        <v>0.32145033798677902</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>3.7519611684339302E-2</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>1.6256393183703501E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-    </row>
-    <row r="12" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-    </row>
-    <row r="13" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-    </row>
-    <row r="15" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-    </row>
-    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-    </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="23"/>
@@ -4497,7 +5495,7 @@
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K26" sqref="A1:XFD1048576"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ml_analysis_results.xlsx
+++ b/ml_analysis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\da_for_polymers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD72DF-32DC-48DE-B779-D39E1F3ED0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9970216-6173-4F9D-8231-8497E1DB3367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1260" windowWidth="29040" windowHeight="15840" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="66">
   <si>
     <t>Summary of Model vs. Data Representation</t>
   </si>
@@ -510,6 +510,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -522,7 +523,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D19AE09-2F74-4C7E-BF0F-941431602E41}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,7 @@
       <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="E25" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       <c r="E33" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       <c r="E34" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       <c r="E42" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="E43" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       <c r="E51" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="30">
         <v>77</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="E52" t="s">
         <v>63</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="30">
         <v>77</v>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -2449,7 +2449,7 @@
         <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
@@ -2466,7 +2466,7 @@
         <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -2483,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
         <v>60</v>
@@ -2500,7 +2500,7 @@
         <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
         <v>59</v>
@@ -2517,7 +2517,7 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2534,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -2551,7 +2551,7 @@
         <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
         <v>61</v>
@@ -2568,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>62</v>
@@ -2585,13 +2585,10 @@
         <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E92" t="s">
         <v>57</v>
@@ -2602,13 +2599,10 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E93" t="s">
         <v>57</v>
@@ -2619,13 +2613,10 @@
         <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
         <v>57</v>
@@ -2636,13 +2627,10 @@
         <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E95" t="s">
         <v>57</v>
@@ -2655,203 +2643,152 @@
       <c r="B96" t="s">
         <v>50</v>
       </c>
-      <c r="C96" t="s">
-        <v>59</v>
-      </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
-      </c>
-      <c r="C97" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>52</v>
       </c>
       <c r="B99" t="s">
         <v>50</v>
       </c>
-      <c r="C99" t="s">
-        <v>61</v>
-      </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>55</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
         <v>55</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102">
-        <v>0.92996539016636903</v>
-      </c>
-      <c r="G102">
-        <v>4.1691303620357799E-2</v>
-      </c>
-      <c r="H102">
-        <v>5.0010744000000003E-2</v>
-      </c>
-      <c r="I102">
-        <v>1.4916219E-2</v>
-      </c>
-      <c r="J102">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>52</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D103" t="s">
         <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
         <v>50</v>
       </c>
-      <c r="D104" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E105" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" t="s">
-        <v>56</v>
-      </c>
-      <c r="E107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
       </c>
       <c r="D108" t="s">
         <v>56</v>
@@ -2860,107 +2797,293 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>52</v>
       </c>
       <c r="B109" t="s">
         <v>47</v>
       </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>52</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F110">
-        <v>0.89569987995808398</v>
-      </c>
-      <c r="G110">
-        <v>5.6325526511424799E-2</v>
-      </c>
-      <c r="H110">
-        <v>6.9269575E-2</v>
-      </c>
-      <c r="I110">
-        <v>2.3579352000000001E-2</v>
-      </c>
-      <c r="J110">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>53</v>
-      </c>
-      <c r="B116" t="s">
-        <v>50</v>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>56</v>
+      </c>
+      <c r="E122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4292,60 +4415,60 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="30" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="30" t="s">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -5620,60 +5743,60 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="30" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="30" t="s">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -6442,60 +6565,60 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="30" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="30" t="s">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -7300,36 +7423,36 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="30"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
